--- a/Design/优化建议.xlsx
+++ b/Design/优化建议.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\OrleansTest\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AD127E-12BF-4A02-8BF7-478FF826D63A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297D8694-D6AD-4279-8751-B78F93D8D216}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3390" yWindow="1155" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="设计注意问题" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="192">
   <si>
     <t>数据库中 术语字典 加密不加密的全都混在一起</t>
   </si>
@@ -894,6 +894,10 @@
   </si>
   <si>
     <t>Value  OtherValue 从Model解决数据的处理现实等方案</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无外键关系 数据表建议假删</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1626,9 +1630,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD7B049-2BFD-4655-B9E5-08C1DB3E2D86}">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView topLeftCell="A157" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
@@ -1875,6 +1879,11 @@
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>190</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="6" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -1891,7 +1900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6585AC51-DA71-41E0-BB22-7E85879188BD}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>

--- a/Design/优化建议.xlsx
+++ b/Design/优化建议.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\OrleansTest\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297D8694-D6AD-4279-8751-B78F93D8D216}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6559AD55-CD19-4F7E-B78D-DD7E4BDF00C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="193">
   <si>
     <t>数据库中 术语字典 加密不加密的全都混在一起</t>
   </si>
@@ -898,6 +898,10 @@
   </si>
   <si>
     <t>无外键关系 数据表建议假删</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Git 提交日志要明了  版本描述明了</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1630,10 +1634,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD7B049-2BFD-4655-B9E5-08C1DB3E2D86}">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1884,6 +1888,11 @@
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>191</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="6" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/Design/优化建议.xlsx
+++ b/Design/优化建议.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\OrleansTest\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6559AD55-CD19-4F7E-B78D-DD7E4BDF00C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA69FD8C-10D5-4A8B-A75D-0765DCC9C23E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1800" yWindow="2685" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="设计注意问题" sheetId="1" r:id="rId1"/>
@@ -777,10 +777,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>WeakReferance  改造 Cache  移至Dal层   ESDataCenter 调用Dal 并使用Cache数据</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>大数据量报告 保存效率问题 1 大日志</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -902,6 +898,10 @@
   </si>
   <si>
     <t>Git 提交日志要明了  版本描述明了</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeakReferance  改造 Cache  移至Dal层  Dal各自管理自己的缓存  ESDataCenter 调用Dal 并使用Cache数据</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1636,8 +1636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD7B049-2BFD-4655-B9E5-08C1DB3E2D86}">
   <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1852,47 +1852,47 @@
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>161</v>
+        <v>192</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -2018,31 +2018,31 @@
         <v>126</v>
       </c>
       <c r="H8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -2056,10 +2056,10 @@
         <v>127</v>
       </c>
       <c r="H9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -2087,7 +2087,7 @@
         <v>130</v>
       </c>
       <c r="H11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -2101,7 +2101,7 @@
         <v>131</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -2115,10 +2115,10 @@
         <v>132</v>
       </c>
       <c r="H13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -2132,10 +2132,10 @@
         <v>133</v>
       </c>
       <c r="H14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -2149,7 +2149,7 @@
         <v>134</v>
       </c>
       <c r="H15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -2160,7 +2160,7 @@
         <v>109</v>
       </c>
       <c r="H16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -2171,10 +2171,10 @@
         <v>110</v>
       </c>
       <c r="H17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -2185,7 +2185,7 @@
         <v>111</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -2196,7 +2196,7 @@
         <v>108</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -2207,7 +2207,7 @@
         <v>114</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">

--- a/Design/优化建议.xlsx
+++ b/Design/优化建议.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\OrleansTest\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA69FD8C-10D5-4A8B-A75D-0765DCC9C23E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A590E928-007D-4ABA-B715-026A1CB05400}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="2685" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3540" yWindow="2595" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="设计注意问题" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="195">
   <si>
     <t>数据库中 术语字典 加密不加密的全都混在一起</t>
   </si>
@@ -902,6 +902,14 @@
   </si>
   <si>
     <t>WeakReferance  改造 Cache  移至Dal层  Dal各自管理自己的缓存  ESDataCenter 调用Dal 并使用Cache数据</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ES导出时每个文件报告数 不能一次性查出来 需要在分页一次 否则ES可能超出内存限制崩溃 分页大小可配置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>外部系统相关数据不要参与本系统业务操作，本系统使用自己的数据字段，外部系统获取的数据,作为额外的数据不影响单机运行，仅用作特定展示等</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1634,10 +1642,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD7B049-2BFD-4655-B9E5-08C1DB3E2D86}">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1893,6 +1901,16 @@
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>191</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="6" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/Design/优化建议.xlsx
+++ b/Design/优化建议.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\OrleansTest\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A590E928-007D-4ABA-B715-026A1CB05400}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B871C6F0-E9D0-4668-B0BC-DA8A8F012E79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="2595" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34920" yWindow="3600" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="设计注意问题" sheetId="1" r:id="rId1"/>
     <sheet name="代码注意问题" sheetId="2" r:id="rId2"/>
     <sheet name="优化原则" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="陌生技术点" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="226">
   <si>
     <t>数据库中 术语字典 加密不加密的全都混在一起</t>
   </si>
@@ -910,6 +911,142 @@
   </si>
   <si>
     <t>外部系统相关数据不要参与本系统业务操作，本系统使用自己的数据字段，外部系统获取的数据,作为额外的数据不影响单机运行，仅用作特定展示等</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>“其他”逻辑做到数据库中可配置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>System.Collections.Immutable  此命名空间下的类型提供较高的性能，且线程安全</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>定制化代码参考解决方案  Action Func  Event</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>原设计中 如果术语集中含多个 “其他”选项  ， otherValue 无法准确对应某一个，所有选项都保存了相同的 otherValue</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Channel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventSource</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventAttribute</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventListener</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventSourceAttribute</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interlocked</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArraySegment&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lazy&lt;T&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>按需延迟创建大对象</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>类似队列  生产者 消费者 功能模型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供为 Windows 事件跟踪 (ETW) 创建事件的功能。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>为多个线程共享的变量提供原子操作。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IEquatable&lt;T&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>comparable&lt;T&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>实现Equals</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现ConpareTo(T) 比较大小 排序等</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MethodImplAttribute</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[MethodImplAttribute(MethodImplOptions.Synchronized)]  只允许一个线程方位方法 相当于lock(this) ,静态方法会锁类型 lock(typeof(T))</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ObjectFactory</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>类似 Span&lt;&gt; Memory&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ObservableCollection&lt;T&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DebuggerDisplayAttribute</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>调试时 变量窗口的展示形式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Debug.Assert() …  </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trace.WriteLine</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>带Conditional("DEBUG")  用于开发诊断错误 在输出窗口打印</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在输出窗口打印</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1642,10 +1779,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD7B049-2BFD-4655-B9E5-08C1DB3E2D86}">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1911,6 +2048,26 @@
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>194</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="6" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -2307,4 +2464,138 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE79C746-41F6-4E60-80FD-35B23507A267}">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.25" customWidth="1"/>
+    <col min="2" max="2" width="77.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>206</v>
+      </c>
+      <c r="B10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B16" t="s">
+        <v>221</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>